--- a/ポートコード作成用.xlsx
+++ b/ポートコード作成用.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ladybug-tool_for_Vectorworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109897EF-7448-461F-8309-6C909CEF710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE461BE1-9838-4015-9EE9-1CABAC025718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25545" yWindow="2820" windowWidth="23925" windowHeight="14670" activeTab="1" xr2:uid="{2ECF7B4D-DF81-40E5-9CC1-5175F5712BB4}"/>
+    <workbookView xWindow="-25245" yWindow="3420" windowWidth="23925" windowHeight="14670" activeTab="2" xr2:uid="{2ECF7B4D-DF81-40E5-9CC1-5175F5712BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="入力用" sheetId="1" r:id="rId1"/>
     <sheet name="コピー用" sheetId="3" r:id="rId2"/>
+    <sheet name="attributes返還 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="attributes返還" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>temperature_</t>
   </si>
@@ -60,6 +62,105 @@
   <si>
     <t>outport</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Name                 = "display_name"</t>
+  </si>
+  <si>
+    <t>Simulation Name (Identifier) = "identifier"</t>
+  </si>
+  <si>
+    <t>Multiplier                   = "multiplier"</t>
+  </si>
+  <si>
+    <t>Floor Area Excluded          = "exclude_floor_area"</t>
+  </si>
+  <si>
+    <t>Story                        = "story"</t>
+  </si>
+  <si>
+    <t>Volume                       = "volume"</t>
+  </si>
+  <si>
+    <t>Gross Floor Area             = "floor_area"</t>
+  </si>
+  <si>
+    <t>Exposed Area                 = "exposed_area"</t>
+  </si>
+  <si>
+    <t>Exterior Wall Area           = "exterior_wall_area"</t>
+  </si>
+  <si>
+    <t>Exterior Aperture Area       = "exterior_aperture_area"</t>
+  </si>
+  <si>
+    <t>Average Floor Elevation      = "average_floor_height"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Name                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation Name (Identifier) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "identifier"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplier                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "multiplier"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor Area Excluded          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "exclude_floor_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "story"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "volume"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Floor Area             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floor_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposed Area                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "exposed_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior Wall Area           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "exterior_wall_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior Aperture Area       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "exterior_aperture_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Floor Elevation      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "average_floor_height"</t>
   </si>
 </sst>
 </file>
@@ -487,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7573D-13B9-4F20-AE22-F91FF9412CDB}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -2119,4 +2220,273 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47F12A1-51CE-48C1-8CAA-E93CE4E7AAE2}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="88.296875" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <f>"'"&amp;A1&amp;"','"&amp;A2&amp;"','"&amp;A3&amp;"','"&amp;A4&amp;"','"&amp;A5&amp;"','"&amp;A6&amp;"','"&amp;A7&amp;"','"&amp;A8&amp;"','"&amp;A9&amp;"','"&amp;A10&amp;"','"&amp;A11&amp;"','"&amp;A12&amp;"','"&amp;A13&amp;"','"&amp;A14&amp;"','"&amp;A15&amp;"','"&amp;A16</f>
+        <v>'Display Name                 ','Simulation Name (Identifier) ','Multiplier                   ','Floor Area Excluded          ','Story                        ','Volume                       ','Gross Floor Area             ','Exposed Area                 ','Exterior Wall Area           ','Exterior Aperture Area       ','Average Floor Elevation      ','','','','','</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f>B1&amp;","&amp;B2&amp;","&amp;B3&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16</f>
+        <v xml:space="preserve"> "display_name", "identifier", "multiplier", "exclude_floor_area", "story", "volume", "floor_area", "exposed_area", "exterior_wall_area", "exterior_aperture_area", "average_floor_height",,,,,</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06B7C87-0DE1-465E-A459-C9A18CDA15B8}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="88.296875" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f>C1&amp;","&amp;C2&amp;","&amp;C3&amp;","&amp;C4&amp;","&amp;C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","</f>
+        <v xml:space="preserve"> "display_name", "identifier", "multiplier", "exclude_floor_area", "story", "volume", "floor_area", "exposed_area", "exterior_wall_area", "exterior_aperture_area", "average_floor_height",,,,,,</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ポートコード作成用.xlsx
+++ b/ポートコード作成用.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ladybug-tool_for_Vectorworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE461BE1-9838-4015-9EE9-1CABAC025718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06765147-A6F7-4F23-BA5E-2154DE30A5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25245" yWindow="3420" windowWidth="23925" windowHeight="14670" activeTab="2" xr2:uid="{2ECF7B4D-DF81-40E5-9CC1-5175F5712BB4}"/>
+    <workbookView xWindow="-25245" yWindow="3420" windowWidth="23925" windowHeight="14670" activeTab="3" xr2:uid="{2ECF7B4D-DF81-40E5-9CC1-5175F5712BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="入力用" sheetId="1" r:id="rId1"/>
     <sheet name="コピー用" sheetId="3" r:id="rId2"/>
     <sheet name="attributes返還 (2)" sheetId="5" r:id="rId3"/>
-    <sheet name="attributes返還" sheetId="4" r:id="rId4"/>
+    <sheet name="attributes返還 (3)" sheetId="6" r:id="rId4"/>
+    <sheet name="attributes返還" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>temperature_</t>
   </si>
@@ -64,103 +65,328 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Display Name                 = "display_name"</t>
-  </si>
-  <si>
-    <t>Simulation Name (Identifier) = "identifier"</t>
-  </si>
-  <si>
-    <t>Multiplier                   = "multiplier"</t>
-  </si>
-  <si>
-    <t>Floor Area Excluded          = "exclude_floor_area"</t>
-  </si>
-  <si>
-    <t>Story                        = "story"</t>
-  </si>
-  <si>
-    <t>Volume                       = "volume"</t>
-  </si>
-  <si>
-    <t>Gross Floor Area             = "floor_area"</t>
-  </si>
-  <si>
-    <t>Exposed Area                 = "exposed_area"</t>
-  </si>
-  <si>
-    <t>Exterior Wall Area           = "exterior_wall_area"</t>
-  </si>
-  <si>
-    <t>Exterior Aperture Area       = "exterior_aperture_area"</t>
-  </si>
-  <si>
-    <t>Average Floor Elevation      = "average_floor_height"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Name                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "display_name"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation Name (Identifier) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "identifier"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplier                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "multiplier"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor Area Excluded          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "exclude_floor_area"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "story"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "volume"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Floor Area             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "floor_area"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposed Area                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "exposed_area"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior Wall Area           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "exterior_wall_area"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior Aperture Area       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "exterior_aperture_area"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Floor Elevation      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "average_floor_height"</t>
+    <t>ASHRAE 90.1 2019  |  IECC 2021 = "2019"</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1 2016  |  IECC 2018 = "2016"</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1 2013  |  IECC 2015 = "2013"</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1 2010  |  IECC 2012 = "2010"</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1 2007  |  IECC 2009 = "2007"</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1 2004  |  IECC 2006 = "2004"</t>
+  </si>
+  <si>
+    <t>1980-2004 (CBECS)              = "1980_2004"</t>
+  </si>
+  <si>
+    <t>Pre-1980 (CBECS)               = "pre_1980"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 90.1 2019  |  IECC 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2019"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 90.1 2016  |  IECC 2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2016"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 90.1 2013  |  IECC 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2013"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 90.1 2010  |  IECC 2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2010"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 90.1 2007  |  IECC 2009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2007"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHRAE 90.1 2004  |  IECC 2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2004"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1980-2004 (CBECS)              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1980_2004"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-1980 (CBECS)               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "pre_1980"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.program_type.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction Set                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.construction_set.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Conditioned                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.is_conditioned"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People per Area [ppl/m2]                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.people.people_per_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area per Person [m2/ppl]                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.people.area_per_person"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting per Area [W/m2]                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.lighting.watts_per_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Equipment per Area [W/m2]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.electric_equipment.watts_per_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Equipment per Area [W/m2]            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.gas_equipment.watts_per_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Water per Area [L/h-m2]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.service_hot_water.flow_per_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration per Exterior Area [m3/s-m2] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.infiltration.flow_per_exterior_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation per Person [m3/s-ppl]        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.ventilation.flow_per_person"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation per Floor Area [m3/s-m2]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.ventilation.flow_per_area"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation per Volume [ACH]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.ventilation.air_changes_per_hour"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation Absolute [m3/s]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.ventilation.flow_per_zone"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Process Load [W]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.total_process_load"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupancy Schedule                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.people.occupancy_schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Schedule                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.people.activity_schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting Schedule                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.lighting.schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Equipment Schedule              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.electric_equipment.schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Equipment Schedule                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.gas_equipment.schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Water Schedule                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.service_hot_water.schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Schedule                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.infiltration.schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation Schedule                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.ventilation.schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating Schedule                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.heating_schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling Schedule                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.cooling_schedule.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating Setpoint [C]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.heating_setpoint"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling Setpoint [C]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.cooling_setpoint"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating Setback [C]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.heating_setback"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling Setback [C]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.cooling_setback"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidifying Setpoint [%]                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.humidifying_setpoint"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehumidifying Setpoint [%]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.setpoint.dehumidifying_setpoint"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HVAC Type                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.__class__.__name__"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HVAC Equipment                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.equipment_type"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HVAC Name                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.display_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economizer Type                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.economizer_type"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Controlled Ventilation            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.demand_controlled_ventilation"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensible Heat Recovery                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.sensible_heat_recovery"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent Heat Recovery                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.hvac.latent_heat_recovery"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHW Equipment                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.shw.equipment_type"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHW Heater Efficiency                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.shw.heater_efficiency"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHW Ambient Condition [C]                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.shw.ambient_condition"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHW Ambient Loss Coefficient [W/K]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "properties.energy.shw.ambient_loss_coefficient"</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47F12A1-51CE-48C1-8CAA-E93CE4E7AAE2}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2239,102 +2465,350 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="str">
-        <f>"'"&amp;A1&amp;"','"&amp;A2&amp;"','"&amp;A3&amp;"','"&amp;A4&amp;"','"&amp;A5&amp;"','"&amp;A6&amp;"','"&amp;A7&amp;"','"&amp;A8&amp;"','"&amp;A9&amp;"','"&amp;A10&amp;"','"&amp;A11&amp;"','"&amp;A12&amp;"','"&amp;A13&amp;"','"&amp;A14&amp;"','"&amp;A15&amp;"','"&amp;A16</f>
-        <v>'Display Name                 ','Simulation Name (Identifier) ','Multiplier                   ','Floor Area Excluded          ','Story                        ','Volume                       ','Gross Floor Area             ','Exposed Area                 ','Exterior Wall Area           ','Exterior Aperture Area       ','Average Floor Elevation      ','','','','','</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="str">
-        <f>B1&amp;","&amp;B2&amp;","&amp;B3&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16</f>
-        <v xml:space="preserve"> "display_name", "identifier", "multiplier", "exclude_floor_area", "story", "volume", "floor_area", "exposed_area", "exterior_wall_area", "exterior_aperture_area", "average_floor_height",,,,,</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="str">
+        <f>"'"&amp;A1&amp;"','"&amp;A2&amp;"','"&amp;A3&amp;"','"&amp;A4&amp;"','"&amp;A5&amp;"','"&amp;A6&amp;"','"&amp;A7&amp;"','"&amp;A8&amp;"','"&amp;A9&amp;"','"&amp;A10&amp;"','"&amp;A11&amp;"','"&amp;A12&amp;"','"&amp;A13&amp;"','"&amp;A14&amp;"','"&amp;A15&amp;"','"&amp;A16&amp;"','"&amp;A17&amp;"','"&amp;A18&amp;"','"&amp;A19&amp;"','"&amp;A20</f>
+        <v xml:space="preserve">'Program                                  ','Construction Set                         ','Is Conditioned                           ','People per Area [ppl/m2]                 ','Area per Person [m2/ppl]                 ','Lighting per Area [W/m2]                 ','Electric Equipment per Area [W/m2]       ','Gas Equipment per Area [W/m2]            ','Hot Water per Area [L/h-m2]              ','Infiltration per Exterior Area [m3/s-m2] ','Ventilation per Person [m3/s-ppl]        ','Ventilation per Floor Area [m3/s-m2]     ','Ventilation per Volume [ACH]             ','Ventilation Absolute [m3/s]              ','Total Process Load [W]                   ','Occupancy Schedule                       ','Activity Schedule                        ','Lighting Schedule                        ','Electric Equipment Schedule              ','Gas Equipment Schedule                   </v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="str">
+        <f>B1&amp;","&amp;B2&amp;","&amp;B3&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20</f>
+        <v xml:space="preserve"> "properties.energy.program_type.display_name", "properties.energy.construction_set.display_name", "properties.energy.is_conditioned", "properties.energy.people.people_per_area", "properties.energy.people.area_per_person", "properties.energy.lighting.watts_per_area", "properties.energy.electric_equipment.watts_per_area", "properties.energy.gas_equipment.watts_per_area", "properties.energy.service_hot_water.flow_per_area", "properties.energy.infiltration.flow_per_exterior_area", "properties.energy.ventilation.flow_per_person", "properties.energy.ventilation.flow_per_area", "properties.energy.ventilation.air_changes_per_hour", "properties.energy.ventilation.flow_per_zone", "properties.energy.total_process_load", "properties.energy.people.occupancy_schedule.display_name", "properties.energy.people.activity_schedule.display_name", "properties.energy.lighting.schedule.display_name", "properties.energy.electric_equipment.schedule.display_name", "properties.energy.gas_equipment.schedule.display_name"</v>
       </c>
     </row>
   </sheetData>
@@ -2344,12 +2818,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627C5166-1997-4524-A451-CC8AB4D88CD9}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="88.296875" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="str">
+        <f>"'"&amp;A1&amp;"','"&amp;A2&amp;"','"&amp;A3&amp;"','"&amp;A4&amp;"','"&amp;A5&amp;"','"&amp;A6&amp;"','"&amp;A7&amp;"','"&amp;A8&amp;"','"&amp;A9&amp;"','"&amp;A10&amp;"','"&amp;A11&amp;"','"&amp;A12&amp;"','"&amp;A13&amp;"','"&amp;A14&amp;"','"&amp;A15&amp;"','"&amp;A16&amp;"','"&amp;A17&amp;"','"&amp;A18&amp;"','"&amp;A19&amp;"','"&amp;A20</f>
+        <v>'SHW Ambient Condition [C]                ','SHW Ambient Loss Coefficient [W/K]       ','','','','','','','','','','','','','','','','','','</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="str">
+        <f>B1&amp;","&amp;B2&amp;","&amp;B3&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20</f>
+        <v xml:space="preserve"> "properties.energy.shw.ambient_condition", "properties.energy.shw.ambient_loss_coefficient",,,,,,,,,,,,,,,,,,</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06B7C87-0DE1-465E-A459-C9A18CDA15B8}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2363,10 +2884,10 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2374,10 +2895,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2385,10 +2906,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2396,10 +2917,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2407,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2418,10 +2939,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2429,10 +2950,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -2440,49 +2961,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>C1&amp;","&amp;C2&amp;","&amp;C3&amp;","&amp;C4&amp;","&amp;C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","</f>
-        <v xml:space="preserve"> "display_name", "identifier", "multiplier", "exclude_floor_area", "story", "volume", "floor_area", "exposed_area", "exterior_wall_area", "exterior_aperture_area", "average_floor_height",,,,,,</v>
+        <v xml:space="preserve"> "2019", "2016", "2013", "2010", "2007", "2004", "1980_2004", "pre_1980",,,,,,,,,</v>
       </c>
     </row>
   </sheetData>

--- a/ポートコード作成用.xlsx
+++ b/ポートコード作成用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ladybug-tool_for_Vectorworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B2096-7B0B-4D9E-8D24-4D7A8BDF0201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C82B84-F871-4364-8234-E0AD1204C170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="2790" windowWidth="23925" windowHeight="14670" activeTab="2" xr2:uid="{2ECF7B4D-DF81-40E5-9CC1-5175F5712BB4}"/>
+    <workbookView xWindow="1920" yWindow="768" windowWidth="23928" windowHeight="14676" activeTab="2" xr2:uid="{2ECF7B4D-DF81-40E5-9CC1-5175F5712BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -308,31 +308,32 @@
     <t>pmv_par_: 条件が受け入れられる/快適とされる基準を指定するための「LB PMV Comfort Parameters」コンポーネントからのオプションの快適性パラメータ。デフォルトはPPD閾値が10％で絶対湿度制約はないとします。</t>
   </si>
   <si>
+    <t>report: レポート、エラー、警告など。</t>
+  </si>
+  <si>
+    <t>pmv: 予測平均投票（PMV）。</t>
+  </si>
+  <si>
+    <t>ppd: 不満を感じる人の割合（PPD）。</t>
+  </si>
+  <si>
+    <t>set: 標準効果温度（SET）（℃）。</t>
+  </si>
+  <si>
+    <t>comfort: 入力条件が指定されたcomfort_parameterに従って受け入れ可能かどうかを示す整数。</t>
+  </si>
+  <si>
+    <t>condition: 指定されたcomfort_parameterに従って被験者の熱状態を示す整数。</t>
+  </si>
+  <si>
+    <t>heat_loss: PMVの根底にある人間のエネルギーバランス計算からの熱損失の6つの項目。値はWで表示されます。</t>
+  </si>
+  <si>
+    <t>comf_obj: 分析のすべての入力と結果を含むPythonオブジェクト。これを"Comfort Statistics"のようなコンポーネントにプラグインすると、さらなる情報を取</t>
+  </si>
+  <si>
     <t>_run: コンポーネントを実行するためにTrueに設定します。</t>
-  </si>
-  <si>
-    <t>report: レポート、エラー、警告など。</t>
-  </si>
-  <si>
-    <t>pmv: 予測平均投票（PMV）。</t>
-  </si>
-  <si>
-    <t>ppd: 不満を感じる人の割合（PPD）。</t>
-  </si>
-  <si>
-    <t>set: 標準効果温度（SET）（℃）。</t>
-  </si>
-  <si>
-    <t>comfort: 入力条件が指定されたcomfort_parameterに従って受け入れ可能かどうかを示す整数。</t>
-  </si>
-  <si>
-    <t>condition: 指定されたcomfort_parameterに従って被験者の熱状態を示す整数。</t>
-  </si>
-  <si>
-    <t>heat_loss: PMVの根底にある人間のエネルギーバランス計算からの熱損失の6つの項目。値はWで表示されます。</t>
-  </si>
-  <si>
-    <t>comf_obj: 分析のすべての入力と結果を含むPythonオブジェクト。これを"Comfort Statistics"のようなコンポーネントにプラグインすると、さらなる情報を取</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -725,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73835A2F-9956-4F76-9421-BFE9D265EC2F}">
   <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -829,7 +830,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1032,7 +1033,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="str">
         <f>LEFT(A31,FIND(" ",SUBSTITUTE(A31,":"," "))-1)</f>
@@ -1045,7 +1046,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" t="str">
         <f>LEFT(A32,FIND(" ",SUBSTITUTE(A32,":"," "))-1)</f>
@@ -1058,7 +1059,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="str">
         <f>LEFT(A33,FIND(" ",SUBSTITUTE(A33,":"," "))-1)</f>
@@ -1071,7 +1072,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="str">
         <f>LEFT(A34,FIND(" ",SUBSTITUTE(A34,":"," "))-1)</f>
@@ -1084,7 +1085,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -1097,7 +1098,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -1110,7 +1111,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1123,7 +1124,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1715,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7573D-13B9-4F20-AE22-F91FF9412CDB}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D139" sqref="D1:D139"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1743,8 +1744,8 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1">IF(A2=0,"",A2&amp;" = Marionette.PortIn("&amp;IF(B2="l","[]","None")&amp;", '"&amp;A2&amp;"')")</f>
-        <v>_air_temp = Marionette.PortIn(None, '_air_temp')</v>
+        <f ca="1">IF(A2=0,"",A2&amp;" = Marionette.PortIn("&amp;IF(B2="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A2),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E2/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_air_temp = Marionette.PortIn(None, 'AirTemp*')</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1781,8 +1782,8 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4" ca="1" si="0">IF(A4=0,"",A4&amp;" = Marionette.PortIn("&amp;IF(B4="l","[]","None")&amp;", '"&amp;A4&amp;"')")</f>
-        <v>_mrt_ = Marionette.PortIn(None, '_mrt_')</v>
+        <f ca="1">IF(A4=0,"",A4&amp;" = Marionette.PortIn("&amp;IF(B4="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A4),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E4/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_mrt_ = Marionette.PortIn(None, 'Mrt')</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1802,7 +1803,7 @@
         <v>平均放射温度（MRT）のデータコレクションまたは個別の値。デフォルトは_air_tempと同じ。</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5" ca="1" si="1">IF(A5=0,"",A5&amp;".SetDescription('"&amp;C5&amp;"')")</f>
+        <f t="shared" ref="D5" ca="1" si="0">IF(A5=0,"",A5&amp;".SetDescription('"&amp;C5&amp;"')")</f>
         <v>_mrt_.SetDescription('平均放射温度（MRT）のデータコレクションまたは個別の値。デフォルトは_air_tempと同じ。')</v>
       </c>
       <c r="E5">
@@ -1819,8 +1820,8 @@
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6" ca="1" si="2">IF(A6=0,"",A6&amp;" = Marionette.PortIn("&amp;IF(B6="l","[]","None")&amp;", '"&amp;A6&amp;"')")</f>
-        <v>_rel_humid = Marionette.PortIn(None, '_rel_humid')</v>
+        <f ca="1">IF(A6=0,"",A6&amp;" = Marionette.PortIn("&amp;IF(B6="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A6),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E6/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_rel_humid = Marionette.PortIn(None, 'RelHumid*')</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1840,7 +1841,7 @@
         <v>相対湿度（％）のデータコレクションまたは個別の値。％値は0から100の範囲です。</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7" ca="1" si="3">IF(A7=0,"",A7&amp;".SetDescription('"&amp;C7&amp;"')")</f>
+        <f t="shared" ref="D7" ca="1" si="1">IF(A7=0,"",A7&amp;".SetDescription('"&amp;C7&amp;"')")</f>
         <v>_rel_humid.SetDescription('相対湿度（％）のデータコレクションまたは個別の値。％値は0から100の範囲です。')</v>
       </c>
       <c r="E7">
@@ -1857,8 +1858,8 @@
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8" ca="1" si="4">IF(A8=0,"",A8&amp;" = Marionette.PortIn("&amp;IF(B8="l","[]","None")&amp;", '"&amp;A8&amp;"')")</f>
-        <v>_air_speed_ = Marionette.PortIn(None, '_air_speed_')</v>
+        <f ca="1">IF(A8=0,"",A8&amp;" = Marionette.PortIn("&amp;IF(B8="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A8),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E8/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_air_speed_ = Marionette.PortIn(None, 'AirSpeed')</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1878,7 +1879,7 @@
         <v>風速（m/s）のデータコレクションまたは個別の値。デフォルトは0.1 m/sという非常に低い速度で、これはHVACシステムによって引き起こされる室内の風速が典型的です。</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9" ca="1" si="5">IF(A9=0,"",A9&amp;".SetDescription('"&amp;C9&amp;"')")</f>
+        <f t="shared" ref="D9" ca="1" si="2">IF(A9=0,"",A9&amp;".SetDescription('"&amp;C9&amp;"')")</f>
         <v>_air_speed_.SetDescription('風速（m/s）のデータコレクションまたは個別の値。デフォルトは0.1 m/sという非常に低い速度で、これはHVACシステムによって引き起こされる室内の風速が典型的です。')</v>
       </c>
       <c r="E9">
@@ -1895,8 +1896,8 @@
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10" ca="1" si="6">IF(A10=0,"",A10&amp;" = Marionette.PortIn("&amp;IF(B10="l","[]","None")&amp;", '"&amp;A10&amp;"')")</f>
-        <v>_met_rate_ = Marionette.PortIn(None, '_met_rate_')</v>
+        <f ca="1">IF(A10=0,"",A10&amp;" = Marionette.PortIn("&amp;IF(B10="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A10),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E10/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_met_rate_ = Marionette.PortIn(None, 'MetRate')</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1916,7 +1917,7 @@
         <v>代謝率（met）のデータコレクションまたは個別の値。デフォルトは座ってタイピングする状態の1.1 metです。</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11" ca="1" si="7">IF(A11=0,"",A11&amp;".SetDescription('"&amp;C11&amp;"')")</f>
+        <f t="shared" ref="D11" ca="1" si="3">IF(A11=0,"",A11&amp;".SetDescription('"&amp;C11&amp;"')")</f>
         <v>_met_rate_.SetDescription('代謝率（met）のデータコレクションまたは個別の値。デフォルトは座ってタイピングする状態の1.1 metです。')</v>
       </c>
       <c r="E11">
@@ -1933,8 +1934,8 @@
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" ca="1" si="8">IF(A12=0,"",A12&amp;" = Marionette.PortIn("&amp;IF(B12="l","[]","None")&amp;", '"&amp;A12&amp;"')")</f>
-        <v>_clothing_ = Marionette.PortIn(None, '_clothing_')</v>
+        <f ca="1">IF(A12=0,"",A12&amp;" = Marionette.PortIn("&amp;IF(B12="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A12),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E12/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_clothing_ = Marionette.PortIn(None, 'Clothing')</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1954,7 +1955,7 @@
         <v>服装の断熱性（clo）のデータコレクションまたは個別の値。デフォルトは長袖のシャツとパンツの0.7 cloです。</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13" ca="1" si="9">IF(A13=0,"",A13&amp;".SetDescription('"&amp;C13&amp;"')")</f>
+        <f t="shared" ref="D13" ca="1" si="4">IF(A13=0,"",A13&amp;".SetDescription('"&amp;C13&amp;"')")</f>
         <v>_clothing_.SetDescription('服装の断熱性（clo）のデータコレクションまたは個別の値。デフォルトは長袖のシャツとパンツの0.7 cloです。')</v>
       </c>
       <c r="E13">
@@ -1971,8 +1972,8 @@
         <v>0</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14" ca="1" si="10">IF(A14=0,"",A14&amp;" = Marionette.PortIn("&amp;IF(B14="l","[]","None")&amp;", '"&amp;A14&amp;"')")</f>
-        <v>pmv_par_ = Marionette.PortIn(None, 'pmv_par_')</v>
+        <f ca="1">IF(A14=0,"",A14&amp;" = Marionette.PortIn("&amp;IF(B14="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A14),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E14/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>pmv_par_ = Marionette.PortIn(None, 'PmvPar')</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -1992,7 +1993,7 @@
         <v>条件が受け入れられる/快適とされる基準を指定するための「LB PMV Comfort Parameters」コンポーネントからのオプションの快適性パラメータ。デフォルトはPPD閾値が10％で絶対湿度制約はないとします。</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15" ca="1" si="11">IF(A15=0,"",A15&amp;".SetDescription('"&amp;C15&amp;"')")</f>
+        <f t="shared" ref="D15" ca="1" si="5">IF(A15=0,"",A15&amp;".SetDescription('"&amp;C15&amp;"')")</f>
         <v>pmv_par_.SetDescription('条件が受け入れられる/快適とされる基準を指定するための「LB PMV Comfort Parameters」コンポーネントからのオプションの快適性パラメータ。デフォルトはPPD閾値が10％で絶対湿度制約はないとします。')</v>
       </c>
       <c r="E15">
@@ -2009,8 +2010,8 @@
         <v>0</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16" ca="1" si="12">IF(A16=0,"",A16&amp;" = Marionette.PortIn("&amp;IF(B16="l","[]","None")&amp;", '"&amp;A16&amp;"')")</f>
-        <v>_run = Marionette.PortIn(None, '_run')</v>
+        <f ca="1">IF(A16=0,"",A16&amp;" = Marionette.PortIn("&amp;IF(B16="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A16),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E16/2,0),0)=1,"*","")&amp;"')")</f>
+        <v>_run = Marionette.PortIn(None, 'Run*')</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -2030,7 +2031,7 @@
         <v>コンポーネントを実行するためにTrueに設定します。</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17" ca="1" si="13">IF(A17=0,"",A17&amp;".SetDescription('"&amp;C17&amp;"')")</f>
+        <f t="shared" ref="D17" ca="1" si="6">IF(A17=0,"",A17&amp;".SetDescription('"&amp;C17&amp;"')")</f>
         <v>_run.SetDescription('コンポーネントを実行するためにTrueに設定します。')</v>
       </c>
       <c r="E17">
@@ -2047,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18" ca="1" si="14">IF(A18=0,"",A18&amp;" = Marionette.PortIn("&amp;IF(B18="l","[]","None")&amp;", '"&amp;A18&amp;"')")</f>
+        <f ca="1">IF(A18=0,"",A18&amp;" = Marionette.PortIn("&amp;IF(B18="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A18),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E18/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E18">
@@ -2068,7 +2069,7 @@
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19" ca="1" si="15">IF(A19=0,"",A19&amp;".SetDescription('"&amp;C19&amp;"')")</f>
+        <f t="shared" ref="D19" ca="1" si="7">IF(A19=0,"",A19&amp;".SetDescription('"&amp;C19&amp;"')")</f>
         <v/>
       </c>
       <c r="E19">
@@ -2085,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ref="D20" ca="1" si="16">IF(A20=0,"",A20&amp;" = Marionette.PortIn("&amp;IF(B20="l","[]","None")&amp;", '"&amp;A20&amp;"')")</f>
+        <f ca="1">IF(A20=0,"",A20&amp;" = Marionette.PortIn("&amp;IF(B20="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A20),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E20/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E20">
@@ -2106,7 +2107,7 @@
         <v/>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ref="D21" ca="1" si="17">IF(A21=0,"",A21&amp;".SetDescription('"&amp;C21&amp;"')")</f>
+        <f t="shared" ref="D21" ca="1" si="8">IF(A21=0,"",A21&amp;".SetDescription('"&amp;C21&amp;"')")</f>
         <v/>
       </c>
       <c r="E21">
@@ -2123,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22" ca="1" si="18">IF(A22=0,"",A22&amp;" = Marionette.PortIn("&amp;IF(B22="l","[]","None")&amp;", '"&amp;A22&amp;"')")</f>
+        <f ca="1">IF(A22=0,"",A22&amp;" = Marionette.PortIn("&amp;IF(B22="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A22),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E22/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E22">
@@ -2144,7 +2145,7 @@
         <v/>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23" ca="1" si="19">IF(A23=0,"",A23&amp;".SetDescription('"&amp;C23&amp;"')")</f>
+        <f t="shared" ref="D23" ca="1" si="9">IF(A23=0,"",A23&amp;".SetDescription('"&amp;C23&amp;"')")</f>
         <v/>
       </c>
       <c r="E23">
@@ -2161,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24" ca="1" si="20">IF(A24=0,"",A24&amp;" = Marionette.PortIn("&amp;IF(B24="l","[]","None")&amp;", '"&amp;A24&amp;"')")</f>
+        <f ca="1">IF(A24=0,"",A24&amp;" = Marionette.PortIn("&amp;IF(B24="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A24),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E24/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E24">
@@ -2182,7 +2183,7 @@
         <v/>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25" ca="1" si="21">IF(A25=0,"",A25&amp;".SetDescription('"&amp;C25&amp;"')")</f>
+        <f t="shared" ref="D25" ca="1" si="10">IF(A25=0,"",A25&amp;".SetDescription('"&amp;C25&amp;"')")</f>
         <v/>
       </c>
       <c r="E25">
@@ -2199,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26" ca="1" si="22">IF(A26=0,"",A26&amp;" = Marionette.PortIn("&amp;IF(B26="l","[]","None")&amp;", '"&amp;A26&amp;"')")</f>
+        <f ca="1">IF(A26=0,"",A26&amp;" = Marionette.PortIn("&amp;IF(B26="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A26),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E26/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E26">
@@ -2220,7 +2221,7 @@
         <v/>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27" ca="1" si="23">IF(A27=0,"",A27&amp;".SetDescription('"&amp;C27&amp;"')")</f>
+        <f t="shared" ref="D27" ca="1" si="11">IF(A27=0,"",A27&amp;".SetDescription('"&amp;C27&amp;"')")</f>
         <v/>
       </c>
       <c r="E27">
@@ -2237,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28:D29" ca="1" si="24">IF(A28=0,"",A28&amp;" = Marionette.PortIn("&amp;IF(B28="l","[]","None")&amp;", '"&amp;A28&amp;"')")</f>
+        <f ca="1">IF(A28=0,"",A28&amp;" = Marionette.PortIn("&amp;IF(B28="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A28),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E28/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E28">
@@ -2254,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="D29" ca="1" si="12">IF(A29=0,"",A29&amp;".SetDescription('"&amp;C29&amp;"')")</f>
         <v/>
       </c>
       <c r="E29">
@@ -2275,7 +2276,7 @@
         <v/>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ref="D30" ca="1" si="25">IF(A30=0,"",A30&amp;".SetDescription('"&amp;C30&amp;"')")</f>
+        <f ca="1">IF(A30=0,"",A30&amp;" = Marionette.PortIn("&amp;IF(B30="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A30),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E30/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E30">
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31" ca="1" si="26">IF(A31=0,"",A31&amp;" = Marionette.PortIn("&amp;IF(B31="l","[]","None")&amp;", '"&amp;A31&amp;"')")</f>
+        <f t="shared" ref="D31" ca="1" si="13">IF(A31=0,"",A31&amp;".SetDescription('"&amp;C31&amp;"')")</f>
         <v/>
       </c>
       <c r="E31">
@@ -2313,7 +2314,7 @@
         <v/>
       </c>
       <c r="D32" t="str">
-        <f t="shared" ref="D32" ca="1" si="27">IF(A32=0,"",A32&amp;".SetDescription('"&amp;C32&amp;"')")</f>
+        <f ca="1">IF(A32=0,"",A32&amp;" = Marionette.PortIn("&amp;IF(B32="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A32),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E32/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E32">
@@ -2330,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ref="D33" ca="1" si="28">IF(A33=0,"",A33&amp;" = Marionette.PortIn("&amp;IF(B33="l","[]","None")&amp;", '"&amp;A33&amp;"')")</f>
+        <f t="shared" ref="D33" ca="1" si="14">IF(A33=0,"",A33&amp;".SetDescription('"&amp;C33&amp;"')")</f>
         <v/>
       </c>
       <c r="E33">
@@ -2351,7 +2352,7 @@
         <v/>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34" ca="1" si="29">IF(A34=0,"",A34&amp;".SetDescription('"&amp;C34&amp;"')")</f>
+        <f ca="1">IF(A34=0,"",A34&amp;" = Marionette.PortIn("&amp;IF(B34="l","[]","None")&amp;", '"&amp;SUBSTITUTE(PROPER(A34),"_","")&amp;IF(OFFSET(all_required_inputs!$D$1,ROUNDDOWN(E34/2,0),0)=1,"*","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E34">
@@ -2368,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35" ca="1" si="30">IF(A35=0,"",A35&amp;" = Marionette.PortIn("&amp;IF(B35="l","[]","None")&amp;", '"&amp;A35&amp;"')")</f>
+        <f t="shared" ref="D35" ca="1" si="15">IF(A35=0,"",A35&amp;".SetDescription('"&amp;C35&amp;"')")</f>
         <v/>
       </c>
       <c r="E35">
@@ -2386,8 +2387,8 @@
         <v>report</v>
       </c>
       <c r="D37" t="str">
-        <f ca="1">IF(A37=0,"",A37&amp;" = Marionette.PortOut('"&amp;A37&amp;"')")</f>
-        <v>report = Marionette.PortOut('report')</v>
+        <f ca="1">IF(A37=0,"",A37&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A37),"_","")&amp;"')")</f>
+        <v>report = Marionette.PortOut('Report')</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2416,8 +2417,8 @@
         <v>pmv</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39" ca="1" si="31">IF(A39=0,"",A39&amp;" = Marionette.PortOut('"&amp;A39&amp;"')")</f>
-        <v>pmv = Marionette.PortOut('pmv')</v>
+        <f t="shared" ref="D39" ca="1" si="16">IF(A39=0,"",A39&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A39),"_","")&amp;"')")</f>
+        <v>pmv = Marionette.PortOut('Pmv')</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2433,7 +2434,7 @@
         <v>予測平均投票（PMV）。</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" ref="D40" ca="1" si="32">IF(A40=0,"",A40&amp;".SetDescription('"&amp;C40&amp;"')")</f>
+        <f t="shared" ref="D40" ca="1" si="17">IF(A40=0,"",A40&amp;".SetDescription('"&amp;C40&amp;"')")</f>
         <v>pmv.SetDescription('予測平均投票（PMV）。')</v>
       </c>
       <c r="E40">
@@ -2446,8 +2447,8 @@
         <v>ppd</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" ref="D41" ca="1" si="33">IF(A41=0,"",A41&amp;" = Marionette.PortOut('"&amp;A41&amp;"')")</f>
-        <v>ppd = Marionette.PortOut('ppd')</v>
+        <f t="shared" ref="D41" ca="1" si="18">IF(A41=0,"",A41&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A41),"_","")&amp;"')")</f>
+        <v>ppd = Marionette.PortOut('Ppd')</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -2463,7 +2464,7 @@
         <v>不満を感じる人の割合（PPD）。</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42" ca="1" si="34">IF(A42=0,"",A42&amp;".SetDescription('"&amp;C42&amp;"')")</f>
+        <f t="shared" ref="D42" ca="1" si="19">IF(A42=0,"",A42&amp;".SetDescription('"&amp;C42&amp;"')")</f>
         <v>ppd.SetDescription('不満を感じる人の割合（PPD）。')</v>
       </c>
       <c r="E42">
@@ -2476,8 +2477,8 @@
         <v>set</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43" ca="1" si="35">IF(A43=0,"",A43&amp;" = Marionette.PortOut('"&amp;A43&amp;"')")</f>
-        <v>set = Marionette.PortOut('set')</v>
+        <f t="shared" ref="D43" ca="1" si="20">IF(A43=0,"",A43&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A43),"_","")&amp;"')")</f>
+        <v>set = Marionette.PortOut('Set')</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -2493,7 +2494,7 @@
         <v>標準効果温度（SET）（℃）。</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" ref="D44" ca="1" si="36">IF(A44=0,"",A44&amp;".SetDescription('"&amp;C44&amp;"')")</f>
+        <f t="shared" ref="D44" ca="1" si="21">IF(A44=0,"",A44&amp;".SetDescription('"&amp;C44&amp;"')")</f>
         <v>set.SetDescription('標準効果温度（SET）（℃）。')</v>
       </c>
       <c r="E44">
@@ -2506,8 +2507,8 @@
         <v>comfort</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" ref="D45" ca="1" si="37">IF(A45=0,"",A45&amp;" = Marionette.PortOut('"&amp;A45&amp;"')")</f>
-        <v>comfort = Marionette.PortOut('comfort')</v>
+        <f t="shared" ref="D45" ca="1" si="22">IF(A45=0,"",A45&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A45),"_","")&amp;"')")</f>
+        <v>comfort = Marionette.PortOut('Comfort')</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -2523,7 +2524,7 @@
         <v>入力条件が指定されたcomfort_parameterに従って受け入れ可能かどうかを示す整数。</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46" ca="1" si="38">IF(A46=0,"",A46&amp;".SetDescription('"&amp;C46&amp;"')")</f>
+        <f t="shared" ref="D46" ca="1" si="23">IF(A46=0,"",A46&amp;".SetDescription('"&amp;C46&amp;"')")</f>
         <v>comfort.SetDescription('入力条件が指定されたcomfort_parameterに従って受け入れ可能かどうかを示す整数。')</v>
       </c>
       <c r="E46">
@@ -2536,8 +2537,8 @@
         <v>condition</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" ref="D47" ca="1" si="39">IF(A47=0,"",A47&amp;" = Marionette.PortOut('"&amp;A47&amp;"')")</f>
-        <v>condition = Marionette.PortOut('condition')</v>
+        <f t="shared" ref="D47" ca="1" si="24">IF(A47=0,"",A47&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A47),"_","")&amp;"')")</f>
+        <v>condition = Marionette.PortOut('Condition')</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -2553,7 +2554,7 @@
         <v>指定されたcomfort_parameterに従って被験者の熱状態を示す整数。</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48" ca="1" si="40">IF(A48=0,"",A48&amp;".SetDescription('"&amp;C48&amp;"')")</f>
+        <f t="shared" ref="D48" ca="1" si="25">IF(A48=0,"",A48&amp;".SetDescription('"&amp;C48&amp;"')")</f>
         <v>condition.SetDescription('指定されたcomfort_parameterに従って被験者の熱状態を示す整数。')</v>
       </c>
       <c r="E48">
@@ -2566,8 +2567,8 @@
         <v>heat_loss</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" ref="D49" ca="1" si="41">IF(A49=0,"",A49&amp;" = Marionette.PortOut('"&amp;A49&amp;"')")</f>
-        <v>heat_loss = Marionette.PortOut('heat_loss')</v>
+        <f t="shared" ref="D49" ca="1" si="26">IF(A49=0,"",A49&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A49),"_","")&amp;"')")</f>
+        <v>heat_loss = Marionette.PortOut('HeatLoss')</v>
       </c>
       <c r="E49">
         <v>12</v>
@@ -2583,7 +2584,7 @@
         <v>PMVの根底にある人間のエネルギーバランス計算からの熱損失の6つの項目。値はWで表示されます。</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50" ca="1" si="42">IF(A50=0,"",A50&amp;".SetDescription('"&amp;C50&amp;"')")</f>
+        <f t="shared" ref="D50" ca="1" si="27">IF(A50=0,"",A50&amp;".SetDescription('"&amp;C50&amp;"')")</f>
         <v>heat_loss.SetDescription('PMVの根底にある人間のエネルギーバランス計算からの熱損失の6つの項目。値はWで表示されます。')</v>
       </c>
       <c r="E50">
@@ -2596,8 +2597,8 @@
         <v>comf_obj</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51" ca="1" si="43">IF(A51=0,"",A51&amp;" = Marionette.PortOut('"&amp;A51&amp;"')")</f>
-        <v>comf_obj = Marionette.PortOut('comf_obj')</v>
+        <f t="shared" ref="D51" ca="1" si="28">IF(A51=0,"",A51&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A51),"_","")&amp;"')")</f>
+        <v>comf_obj = Marionette.PortOut('ComfObj')</v>
       </c>
       <c r="E51">
         <v>14</v>
@@ -2613,7 +2614,7 @@
         <v>分析のすべての入力と結果を含むPythonオブジェクト。これを"Comfort Statistics"のようなコンポーネントにプラグインすると、さらなる情報を取</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52" ca="1" si="44">IF(A52=0,"",A52&amp;".SetDescription('"&amp;C52&amp;"')")</f>
+        <f t="shared" ref="D52" ca="1" si="29">IF(A52=0,"",A52&amp;".SetDescription('"&amp;C52&amp;"')")</f>
         <v>comf_obj.SetDescription('分析のすべての入力と結果を含むPythonオブジェクト。これを"Comfort Statistics"のようなコンポーネントにプラグインすると、さらなる情報を取')</v>
       </c>
       <c r="E52">
@@ -2626,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" ref="D53" ca="1" si="45">IF(A53=0,"",A53&amp;" = Marionette.PortOut('"&amp;A53&amp;"')")</f>
+        <f t="shared" ref="D53" ca="1" si="30">IF(A53=0,"",A53&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A53),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E53">
@@ -2643,7 +2644,7 @@
         <v/>
       </c>
       <c r="D54" t="str">
-        <f t="shared" ref="D54" ca="1" si="46">IF(A54=0,"",A54&amp;".SetDescription('"&amp;C54&amp;"')")</f>
+        <f t="shared" ref="D54" ca="1" si="31">IF(A54=0,"",A54&amp;".SetDescription('"&amp;C54&amp;"')")</f>
         <v/>
       </c>
       <c r="E54">
@@ -2656,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" ref="D55" ca="1" si="47">IF(A55=0,"",A55&amp;" = Marionette.PortOut('"&amp;A55&amp;"')")</f>
+        <f t="shared" ref="D55" ca="1" si="32">IF(A55=0,"",A55&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A55),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E55">
@@ -2673,7 +2674,7 @@
         <v/>
       </c>
       <c r="D56" t="str">
-        <f t="shared" ref="D56" ca="1" si="48">IF(A56=0,"",A56&amp;".SetDescription('"&amp;C56&amp;"')")</f>
+        <f t="shared" ref="D56" ca="1" si="33">IF(A56=0,"",A56&amp;".SetDescription('"&amp;C56&amp;"')")</f>
         <v/>
       </c>
       <c r="E56">
@@ -2686,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57" ca="1" si="49">IF(A57=0,"",A57&amp;" = Marionette.PortOut('"&amp;A57&amp;"')")</f>
+        <f t="shared" ref="D57" ca="1" si="34">IF(A57=0,"",A57&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A57),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E57">
@@ -2703,7 +2704,7 @@
         <v/>
       </c>
       <c r="D58" t="str">
-        <f t="shared" ref="D58" ca="1" si="50">IF(A58=0,"",A58&amp;".SetDescription('"&amp;C58&amp;"')")</f>
+        <f t="shared" ref="D58" ca="1" si="35">IF(A58=0,"",A58&amp;".SetDescription('"&amp;C58&amp;"')")</f>
         <v/>
       </c>
       <c r="E58">
@@ -2716,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" ref="D59:D61" ca="1" si="51">IF(A59=0,"",A59&amp;" = Marionette.PortOut('"&amp;A59&amp;"')")</f>
+        <f t="shared" ref="D59" ca="1" si="36">IF(A59=0,"",A59&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A59),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E59">
@@ -2733,7 +2734,7 @@
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:D62" ca="1" si="52">IF(A60=0,"",A60&amp;".SetDescription('"&amp;C60&amp;"')")</f>
+        <f t="shared" ref="D60" ca="1" si="37">IF(A60=0,"",A60&amp;".SetDescription('"&amp;C60&amp;"')")</f>
         <v/>
       </c>
       <c r="E60">
@@ -2746,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ref="D61" ca="1" si="38">IF(A61=0,"",A61&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A61),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E61">
@@ -2763,7 +2764,7 @@
         <v/>
       </c>
       <c r="D62" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ref="D62" ca="1" si="39">IF(A62=0,"",A62&amp;".SetDescription('"&amp;C62&amp;"')")</f>
         <v/>
       </c>
       <c r="E62">
@@ -2776,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63" ca="1" si="53">IF(A63=0,"",A63&amp;" = Marionette.PortOut('"&amp;A63&amp;"')")</f>
+        <f t="shared" ref="D63" ca="1" si="40">IF(A63=0,"",A63&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A63),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E63">
@@ -2793,7 +2794,7 @@
         <v/>
       </c>
       <c r="D64" t="str">
-        <f t="shared" ref="D64" ca="1" si="54">IF(A64=0,"",A64&amp;".SetDescription('"&amp;C64&amp;"')")</f>
+        <f t="shared" ref="D64" ca="1" si="41">IF(A64=0,"",A64&amp;".SetDescription('"&amp;C64&amp;"')")</f>
         <v/>
       </c>
       <c r="E64">
@@ -2806,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65" ca="1" si="55">IF(A65=0,"",A65&amp;" = Marionette.PortOut('"&amp;A65&amp;"')")</f>
+        <f t="shared" ref="D65" ca="1" si="42">IF(A65=0,"",A65&amp;" = Marionette.PortOut('"&amp;SUBSTITUTE(PROPER(A65),"_","")&amp;"')")</f>
         <v/>
       </c>
       <c r="E65">
@@ -2823,7 +2824,7 @@
         <v/>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66" ca="1" si="56">IF(A66=0,"",A66&amp;".SetDescription('"&amp;C66&amp;"')")</f>
+        <f t="shared" ref="D66" ca="1" si="43">IF(A66=0,"",A66&amp;".SetDescription('"&amp;C66&amp;"')")</f>
         <v/>
       </c>
       <c r="E66">
@@ -2890,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" ref="D73" ca="1" si="57">IF(A73=0,"",A73&amp;"  = self.Params."&amp;A73&amp;".value")</f>
+        <f t="shared" ref="D73" ca="1" si="44">IF(A73=0,"",A73&amp;"  = self.Params."&amp;A73&amp;".value")</f>
         <v>_mrt_  = self.Params._mrt_.value</v>
       </c>
       <c r="E73">
@@ -2924,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75" ca="1" si="58">IF(A75=0,"",A75&amp;"  = self.Params."&amp;A75&amp;".value")</f>
+        <f t="shared" ref="D75" ca="1" si="45">IF(A75=0,"",A75&amp;"  = self.Params."&amp;A75&amp;".value")</f>
         <v>_rel_humid  = self.Params._rel_humid.value</v>
       </c>
       <c r="E75">
@@ -2958,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" ref="D77" ca="1" si="59">IF(A77=0,"",A77&amp;"  = self.Params."&amp;A77&amp;".value")</f>
+        <f t="shared" ref="D77" ca="1" si="46">IF(A77=0,"",A77&amp;"  = self.Params."&amp;A77&amp;".value")</f>
         <v>_air_speed_  = self.Params._air_speed_.value</v>
       </c>
       <c r="E77">
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79" ca="1" si="60">IF(A79=0,"",A79&amp;"  = self.Params."&amp;A79&amp;".value")</f>
+        <f t="shared" ref="D79" ca="1" si="47">IF(A79=0,"",A79&amp;"  = self.Params."&amp;A79&amp;".value")</f>
         <v>_met_rate_  = self.Params._met_rate_.value</v>
       </c>
       <c r="E79">
@@ -3026,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" ref="D81" ca="1" si="61">IF(A81=0,"",A81&amp;"  = self.Params."&amp;A81&amp;".value")</f>
+        <f t="shared" ref="D81" ca="1" si="48">IF(A81=0,"",A81&amp;"  = self.Params."&amp;A81&amp;".value")</f>
         <v>_clothing_  = self.Params._clothing_.value</v>
       </c>
       <c r="E81">
@@ -3060,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ref="D83" ca="1" si="62">IF(A83=0,"",A83&amp;"  = self.Params."&amp;A83&amp;".value")</f>
+        <f t="shared" ref="D83" ca="1" si="49">IF(A83=0,"",A83&amp;"  = self.Params."&amp;A83&amp;".value")</f>
         <v>pmv_par_  = self.Params.pmv_par_.value</v>
       </c>
       <c r="E83">
@@ -3094,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" ref="D85" ca="1" si="63">IF(A85=0,"",A85&amp;"  = self.Params."&amp;A85&amp;".value")</f>
+        <f t="shared" ref="D85" ca="1" si="50">IF(A85=0,"",A85&amp;"  = self.Params."&amp;A85&amp;".value")</f>
         <v>_run  = self.Params._run.value</v>
       </c>
       <c r="E85">
@@ -3128,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87" ca="1" si="64">IF(A87=0,"",A87&amp;"  = self.Params."&amp;A87&amp;".value")</f>
+        <f t="shared" ref="D87" ca="1" si="51">IF(A87=0,"",A87&amp;"  = self.Params."&amp;A87&amp;".value")</f>
         <v/>
       </c>
       <c r="E87">
@@ -3162,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" ref="D89" ca="1" si="65">IF(A89=0,"",A89&amp;"  = self.Params."&amp;A89&amp;".value")</f>
+        <f t="shared" ref="D89" ca="1" si="52">IF(A89=0,"",A89&amp;"  = self.Params."&amp;A89&amp;".value")</f>
         <v/>
       </c>
       <c r="E89">
@@ -3196,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91" ca="1" si="66">IF(A91=0,"",A91&amp;"  = self.Params."&amp;A91&amp;".value")</f>
+        <f t="shared" ref="D91" ca="1" si="53">IF(A91=0,"",A91&amp;"  = self.Params."&amp;A91&amp;".value")</f>
         <v/>
       </c>
       <c r="E91">
@@ -3230,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" ref="D93" ca="1" si="67">IF(A93=0,"",A93&amp;"  = self.Params."&amp;A93&amp;".value")</f>
+        <f t="shared" ref="D93" ca="1" si="54">IF(A93=0,"",A93&amp;"  = self.Params."&amp;A93&amp;".value")</f>
         <v/>
       </c>
       <c r="E93">
@@ -3264,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D96" ca="1" si="68">IF(A95=0,"",A95&amp;"  = self.Params."&amp;A95&amp;".value")</f>
+        <f t="shared" ref="D95:D96" ca="1" si="55">IF(A95=0,"",A95&amp;"  = self.Params."&amp;A95&amp;".value")</f>
         <v/>
       </c>
       <c r="E95">
@@ -3281,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="E96">
@@ -3315,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98" ca="1" si="69">IF(A98=0,"",A98&amp;"  = self.Params."&amp;A98&amp;".value")</f>
+        <f t="shared" ref="D98" ca="1" si="56">IF(A98=0,"",A98&amp;"  = self.Params."&amp;A98&amp;".value")</f>
         <v/>
       </c>
       <c r="E98">
@@ -3349,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" ref="D100" ca="1" si="70">IF(A100=0,"",A100&amp;"  = self.Params."&amp;A100&amp;".value")</f>
+        <f t="shared" ref="D100" ca="1" si="57">IF(A100=0,"",A100&amp;"  = self.Params."&amp;A100&amp;".value")</f>
         <v/>
       </c>
       <c r="E100">
@@ -3383,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" ref="D102" ca="1" si="71">IF(A102=0,"",A102&amp;"  = self.Params."&amp;A102&amp;".value")</f>
+        <f t="shared" ref="D102" ca="1" si="58">IF(A102=0,"",A102&amp;"  = self.Params."&amp;A102&amp;".value")</f>
         <v/>
       </c>
       <c r="E102">
@@ -3398,7 +3399,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D104" t="str">
         <f>all_required_inputs!A30</f>
-        <v>if  _air_temp and _rel_humid and _run:</v>
+        <v>if all_required_inputs(self.Handle, [  _air_temp ,  _rel_humid ,  _run  ] and _run:</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -3422,7 +3423,7 @@
         <v>pmv</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" ref="D108:D120" ca="1" si="72">IF(A108=0,"",A108&amp;" = None")</f>
+        <f t="shared" ref="D108:D120" ca="1" si="59">IF(A108=0,"",A108&amp;" = None")</f>
         <v>pmv = None</v>
       </c>
     </row>
@@ -3432,7 +3433,7 @@
         <v>ppd</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v>ppd = None</v>
       </c>
     </row>
@@ -3442,7 +3443,7 @@
         <v>set</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v>set = None</v>
       </c>
     </row>
@@ -3452,7 +3453,7 @@
         <v>comfort</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v>comfort = None</v>
       </c>
     </row>
@@ -3462,7 +3463,7 @@
         <v>condition</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v>condition = None</v>
       </c>
     </row>
@@ -3472,7 +3473,7 @@
         <v>heat_loss</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v>heat_loss = None</v>
       </c>
     </row>
@@ -3482,7 +3483,7 @@
         <v>comf_obj</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v>comf_obj = None</v>
       </c>
     </row>
@@ -3492,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -3502,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -3512,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -3522,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -3532,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -3542,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -3570,7 +3571,7 @@
         <v>pmv</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" ref="D125:D135" ca="1" si="73">IF(A125=0,"","self.Params."&amp;A125&amp;".value = "&amp;A125)</f>
+        <f t="shared" ref="D125:D135" ca="1" si="60">IF(A125=0,"","self.Params."&amp;A125&amp;".value = "&amp;A125)</f>
         <v>self.Params.pmv.value = pmv</v>
       </c>
       <c r="E125">
@@ -3583,7 +3584,7 @@
         <v>ppd</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v>self.Params.ppd.value = ppd</v>
       </c>
       <c r="E126">
@@ -3596,7 +3597,7 @@
         <v>set</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v>self.Params.set.value = set</v>
       </c>
       <c r="E127">
@@ -3609,7 +3610,7 @@
         <v>comfort</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v>self.Params.comfort.value = comfort</v>
       </c>
       <c r="E128">
@@ -3622,7 +3623,7 @@
         <v>condition</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v>self.Params.condition.value = condition</v>
       </c>
       <c r="E129">
@@ -3635,7 +3636,7 @@
         <v>heat_loss</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v>self.Params.heat_loss.value = heat_loss</v>
       </c>
       <c r="E130">
@@ -3648,7 +3649,7 @@
         <v>comf_obj</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v>self.Params.comf_obj.value = comf_obj</v>
       </c>
       <c r="E131">
@@ -3661,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="E132">
@@ -3674,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="E133">
@@ -3687,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="E134">
@@ -3700,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="E135">
@@ -3713,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" ref="D136:D137" ca="1" si="74">IF(A136=0,"","self.Params."&amp;A136&amp;".value = "&amp;A136)</f>
+        <f t="shared" ref="D136:D137" ca="1" si="61">IF(A136=0,"","self.Params."&amp;A136&amp;".value = "&amp;A136)</f>
         <v/>
       </c>
       <c r="E136">
@@ -3726,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="E137">
@@ -3741,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29AB9A-7064-45F3-AE51-E3CD59DCE01A}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3752,7 +3753,7 @@
     <col min="1" max="1" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>IF(入力用!A2=0,"",入力用!A2)</f>
         <v>_air_temp</v>
@@ -3774,15 +3775,19 @@
         <v>1</v>
       </c>
       <c r="F1" t="str">
-        <f>IF(D1=1," "&amp;A1&amp;" and","")</f>
-        <v xml:space="preserve"> _air_temp and</v>
+        <f>IF(D1=1," "&amp;A1&amp;" , ","")</f>
+        <v xml:space="preserve"> _air_temp , </v>
       </c>
       <c r="G1" t="str">
         <f>IF(A1="","",A1&amp;" or")</f>
         <v>_air_temp or</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I1">
+        <f>IF(A1="_run",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>IF(入力用!A3=0,"",入力用!A3)</f>
         <v>_mrt_</v>
@@ -3804,15 +3809,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F23" si="4">IF(D2=1," "&amp;A2&amp;" and","")</f>
+        <f t="shared" ref="F2:F23" si="4">IF(D2=1," "&amp;A2&amp;" , ","")</f>
         <v/>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G23" si="5">IF(A2="","",A2&amp;" or")</f>
         <v>_mrt_ or</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <f t="shared" ref="I2:I23" si="6">IF(A2="_run",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>IF(入力用!A4=0,"",入力用!A4)</f>
         <v>_rel_humid</v>
@@ -3835,14 +3844,18 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _rel_humid and</v>
+        <v xml:space="preserve"> _rel_humid , </v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="5"/>
         <v>_rel_humid or</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>IF(入力用!A5=0,"",入力用!A5)</f>
         <v>_air_speed_</v>
@@ -3871,8 +3884,12 @@
         <f t="shared" si="5"/>
         <v>_air_speed_ or</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>IF(入力用!A6=0,"",入力用!A6)</f>
         <v>_met_rate_</v>
@@ -3901,8 +3918,12 @@
         <f t="shared" si="5"/>
         <v>_met_rate_ or</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>IF(入力用!A7=0,"",入力用!A7)</f>
         <v>_clothing_</v>
@@ -3931,8 +3952,12 @@
         <f t="shared" si="5"/>
         <v>_clothing_ or</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>IF(入力用!A8=0,"",入力用!A8)</f>
         <v>pmv_par_</v>
@@ -3961,8 +3986,12 @@
         <f t="shared" si="5"/>
         <v>pmv_par_ or</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>IF(入力用!A9=0,"",入力用!A9)</f>
         <v>_run</v>
@@ -3985,14 +4014,18 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> _run and</v>
+        <v xml:space="preserve"> _run , </v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="5"/>
         <v>_run or</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>IF(入力用!A10=0,"",入力用!A10)</f>
         <v/>
@@ -4021,8 +4054,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>IF(入力用!A11=0,"",入力用!A11)</f>
         <v/>
@@ -4051,8 +4088,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>IF(入力用!A12=0,"",入力用!A12)</f>
         <v/>
@@ -4081,8 +4122,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>IF(入力用!A13=0,"",入力用!A13)</f>
         <v/>
@@ -4111,8 +4156,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>IF(入力用!A14=0,"",入力用!A14)</f>
         <v/>
@@ -4141,8 +4190,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>IF(入力用!A15=0,"",入力用!A15)</f>
         <v/>
@@ -4171,8 +4224,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>IF(入力用!A16=0,"",入力用!A16)</f>
         <v/>
@@ -4201,8 +4258,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>IF(入力用!A17=0,"",入力用!A17)</f>
         <v/>
@@ -4231,8 +4292,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>IF(入力用!A18=0,"",入力用!A18)</f>
         <v/>
@@ -4261,8 +4326,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>IF(入力用!A19=0,"",入力用!A19)</f>
         <v/>
@@ -4291,8 +4360,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>IF(入力用!A20=0,"",入力用!A20)</f>
         <v/>
@@ -4321,8 +4394,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>IF(入力用!A21=0,"",入力用!A21)</f>
         <v/>
@@ -4351,8 +4428,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>IF(入力用!A22=0,"",入力用!A22)</f>
         <v/>
@@ -4381,8 +4462,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>IF(入力用!A23=0,"",入力用!A23)</f>
         <v/>
@@ -4411,8 +4496,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>IF(入力用!A24=0,"",入力用!A24)</f>
         <v/>
@@ -4441,8 +4530,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C24">
         <f>SUM(C1:C23)</f>
         <v>5</v>
@@ -4455,35 +4548,39 @@
         <f>SUM(E1:E23)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f>SUM(I1:I23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>_xlfn.CONCAT(F1:F23)</f>
-        <v xml:space="preserve"> _air_temp and _rel_humid and _run and</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve"> _air_temp ,  _rel_humid ,  _run , </v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
-        <f>IF(LEN(A25)&gt;3,LEFT(A25,LEN(A25)-4))</f>
-        <v xml:space="preserve"> _air_temp and _rel_humid and _run</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <f>IF(LEN(A25)&gt;3,LEFT(A25,LEN(A25)-2))</f>
+        <v xml:space="preserve"> _air_temp ,  _rel_humid ,  _run </v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT(G1:G23)</f>
         <v>_air_temp or_mrt_ or_rel_humid or_air_speed_ or_met_rate_ or_clothing_ orpmv_par_ or_run or</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f>IF(LEN(A27)&gt;3,LEFT(A27,LEN(A27)-4))</f>
         <v>_air_temp or_mrt_ or_rel_humid or_air_speed_ or_met_rate_ or_clothing_ orpmv_par_ or_ru</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="str">
-        <f>"if "&amp;IF(D24&gt;0,A26,A28)&amp;":"</f>
-        <v>if  _air_temp and _rel_humid and _run:</v>
+        <f>"if all_required_inputs(self.Handle, [ "&amp;IF(D24&gt;0,A26,A28)&amp;" ]"&amp;IF(I24&gt;0," and _run","")&amp;":"</f>
+        <v>if all_required_inputs(self.Handle, [  _air_temp ,  _rel_humid ,  _run  ] and _run:</v>
       </c>
     </row>
   </sheetData>
